--- a/GV compta synthese.xlsx
+++ b/GV compta synthese.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="500" visibility="visible" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="500" visibility="visible" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Synthese" sheetId="1" state="visible" r:id="rId1"/>
@@ -70,17 +70,14 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
+  <cellXfs count="3">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -384,16 +381,13 @@
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B1" activeCellId="0" pane="topLeft" sqref="B1"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="G4" activeCellId="0" pane="topLeft" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.6796875" defaultRowHeight="15" outlineLevelRow="0" zeroHeight="0"/>
-  <cols>
-    <col customWidth="1" max="1025" min="1" style="2" width="8.67"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.6875" defaultRowHeight="15" outlineLevelRow="0" zeroHeight="0"/>
   <sheetData>
-    <row customHeight="1" ht="15" r="1" s="3">
+    <row customHeight="1" ht="15" r="1" s="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Budget total</t>
@@ -403,50 +397,50 @@
         <v>500000</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="2" s="3">
+    <row customHeight="1" ht="15" r="2" s="1">
       <c r="A2" s="2" t="inlineStr">
         <is>
           <t>Budget restant estime</t>
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>476592.83</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="3" s="3">
+        <v>492911</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="3" s="1">
       <c r="A3" s="2" t="inlineStr">
         <is>
           <t>Budget restant effectif</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>499478.35</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="4" s="3">
+        <v>492911</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="4" s="1">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>Depenses prevus</t>
+          <t>Depenses prevues</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>23407.17</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="5" s="1">
       <c r="A5" s="2" t="inlineStr">
         <is>
           <t>Depenses effectives</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>521.6500000000001</v>
+        <v>7089</v>
       </c>
     </row>
   </sheetData>
   <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
   <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>
-  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -456,26 +450,23 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="K22" activeCellId="0" pane="topLeft" sqref="K22"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.6796875" defaultRowHeight="15" outlineLevelRow="0" zeroHeight="0"/>
-  <cols>
-    <col customWidth="1" max="1025" min="1" style="2" width="8.67"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.6875" defaultRowHeight="15" outlineLevelRow="0" zeroHeight="0"/>
   <sheetData>
-    <row customHeight="1" ht="15" r="1" s="3">
+    <row customHeight="1" ht="15" r="1" s="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>Type de traveaux</t>
+          <t>Type de travaux</t>
         </is>
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>Depenses prevus</t>
+          <t>Depenses prevues</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
@@ -484,49 +475,36 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="2" s="3">
+    <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>electricite</t>
+          <t>electricité</t>
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>20056.48</v>
+        <v>0</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>371.29</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="3" s="3">
+        <v>5364</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>espace vert</t>
+          <t>plomberie</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>plomberie</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>350.69</v>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>150.36</v>
+        <v>1725</v>
       </c>
     </row>
   </sheetData>
   <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
   <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>
-  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -536,18 +514,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.6796875" defaultRowHeight="15" outlineLevelRow="0" zeroHeight="0"/>
-  <cols>
-    <col customWidth="1" max="1025" min="1" style="2" width="8.67"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.6875" defaultRowHeight="15" outlineLevelRow="0" zeroHeight="0"/>
   <sheetData>
-    <row customHeight="1" ht="15" r="1" s="3">
+    <row customHeight="1" ht="15" r="1" s="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Nom de l'entreprise</t>
@@ -555,7 +530,7 @@
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>Depenses prevus</t>
+          <t>Depenses prevues</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
@@ -564,61 +539,48 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="2" s="3">
+    <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>energy co</t>
+          <t>electro 2000</t>
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>56.48</v>
+        <v>0</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>371.29</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="3" s="3">
+        <v>5364</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>vigiscan</t>
+          <t>je suis sous l'eau</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="C3" s="2" t="n">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>Robert &amp; fils</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row customHeight="1" ht="15" r="4" s="3">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>jardin jardin</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>3000</v>
-      </c>
       <c r="C4" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>je suis sous l'eau</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>350.69</v>
-      </c>
-      <c r="C5" t="n">
-        <v>150.36</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
   <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
   <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>
-  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
 </worksheet>
 </file>